--- a/data/trans_dic/P25C$otraforma_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P25C$otraforma_2023-Clase-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.006497495834380599</v>
+        <v>0.006713414120775039</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.004459482655580565</v>
+        <v>0.005231334295107626</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06780911053814988</v>
+        <v>0.0668057672382321</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05135622328368123</v>
+        <v>0.05172689405733259</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04950206005689167</v>
+        <v>0.04737675479103524</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.04451169860711615</v>
+        <v>0.04451169860711614</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0</v>
@@ -636,11 +636,11 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01182756052185793</v>
+        <v>0.01084119175390635</v>
       </c>
       <c r="D8" s="5" t="inlineStr"/>
       <c r="E8" s="5" t="n">
-        <v>0.007456456550293522</v>
+        <v>0.007504974617376777</v>
       </c>
     </row>
     <row r="9">
@@ -651,11 +651,11 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1059267274639698</v>
+        <v>0.1043551529084885</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="n">
-        <v>0.06955593663335237</v>
+        <v>0.0643047723627742</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.009080992123454068</v>
+        <v>0.009214031392667658</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.007800810309197932</v>
+        <v>0.007695539244747983</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07538846945441013</v>
+        <v>0.07730344964702851</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1999829452214695</v>
+        <v>0.1617936022739509</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07138785219517037</v>
+        <v>0.07063844561596921</v>
       </c>
     </row>
     <row r="13">
@@ -728,7 +728,7 @@
         <v>0.04438883077759113</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.03558470555725529</v>
+        <v>0.03558470555725531</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.04185761718102063</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02051507263315474</v>
+        <v>0.02012001298907778</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.008379277358342251</v>
+        <v>0.008362972376503384</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02280004962228663</v>
+        <v>0.02195188666099496</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08053831175398374</v>
+        <v>0.08156851561685417</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08729461003031511</v>
+        <v>0.0848900010396815</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07070682410975235</v>
+        <v>0.06948666914089016</v>
       </c>
     </row>
     <row r="16">
@@ -786,7 +786,7 @@
         <v>0.0588391534196939</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.06547337003300366</v>
+        <v>0.06547337003300364</v>
       </c>
     </row>
     <row r="17">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02595529355433265</v>
+        <v>0.0296606556309616</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02543630154117331</v>
+        <v>0.02563612110651558</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.036009036440476</v>
+        <v>0.03775545388654016</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1417918709451119</v>
+        <v>0.1472299660802309</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1154967438842464</v>
+        <v>0.1149568236227127</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1101585329568787</v>
+        <v>0.1090914658988463</v>
       </c>
     </row>
     <row r="19">
@@ -838,7 +838,7 @@
         <v>0.1389145403238971</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.01772828628544714</v>
+        <v>0.01772828628544713</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.03574585634871377</v>
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.6464068972032148</v>
+        <v>0.6355921051383882</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.08850406352496241</v>
+        <v>0.08145259100068715</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1199782202455805</v>
+        <v>0.1264859759805034</v>
       </c>
     </row>
     <row r="22">
@@ -896,7 +896,7 @@
         <v>0.02761685566940865</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.03730090882929284</v>
+        <v>0.03730090882929283</v>
       </c>
     </row>
     <row r="23">
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02877356321472988</v>
+        <v>0.02925836083034963</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0166101536030426</v>
+        <v>0.01508247633013848</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02686139269267651</v>
+        <v>0.02643850063441648</v>
       </c>
     </row>
     <row r="24">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.06220219094871547</v>
+        <v>0.06241423169883973</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04531626298885656</v>
+        <v>0.04393488366668775</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.05020207365001959</v>
+        <v>0.05109989367356879</v>
       </c>
     </row>
     <row r="25">
@@ -1074,13 +1074,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>849</v>
+        <v>877</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>892</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="7">
@@ -1091,13 +1091,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>8857</v>
+        <v>8726</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>3565</v>
+        <v>3591</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9903</v>
+        <v>9477</v>
       </c>
     </row>
     <row r="8">
@@ -1146,11 +1146,11 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1211</v>
+        <v>1110</v>
       </c>
       <c r="D10" s="6" t="inlineStr"/>
       <c r="E10" s="6" t="n">
-        <v>1232</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="11">
@@ -1161,11 +1161,11 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>10842</v>
+        <v>10681</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="n">
-        <v>11490</v>
+        <v>10622</v>
       </c>
     </row>
     <row r="12">
@@ -1214,13 +1214,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>953</v>
+        <v>967</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>996</v>
+        <v>983</v>
       </c>
     </row>
     <row r="15">
@@ -1231,13 +1231,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7916</v>
+        <v>8117</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4536</v>
+        <v>3670</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9115</v>
+        <v>9019</v>
       </c>
     </row>
     <row r="16">
@@ -1286,13 +1286,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4327</v>
+        <v>4244</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6750</v>
+        <v>6499</v>
       </c>
     </row>
     <row r="19">
@@ -1303,13 +1303,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>16987</v>
+        <v>17205</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>7430</v>
+        <v>7225</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>20932</v>
+        <v>20570</v>
       </c>
     </row>
     <row r="20">
@@ -1358,13 +1358,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2446</v>
+        <v>2795</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2030</v>
+        <v>2046</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>6267</v>
+        <v>6571</v>
       </c>
     </row>
     <row r="23">
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>13362</v>
+        <v>13875</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>9218</v>
+        <v>9175</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>19173</v>
+        <v>18988</v>
       </c>
     </row>
     <row r="24">
@@ -1447,13 +1447,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4309</v>
+        <v>4237</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>3378</v>
+        <v>3109</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>5379</v>
+        <v>5671</v>
       </c>
     </row>
     <row r="28">
@@ -1502,13 +1502,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>18697</v>
+        <v>19012</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>5947</v>
+        <v>5400</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>27072</v>
+        <v>26646</v>
       </c>
     </row>
     <row r="31">
@@ -1519,13 +1519,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>40419</v>
+        <v>40557</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>16225</v>
+        <v>15730</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>50595</v>
+        <v>51500</v>
       </c>
     </row>
     <row r="32">
